--- a/jpcore-r4/feature/swg2-add-microbiology/observations-summary.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
     <t>Profile</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>JP Core Observation Microbiology Profile</t>
+  </si>
+  <si>
+    <t>JP Core Simple Observation Category CodeSystem#laboratory, LOINC#18725-2</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationLabResultCode_VS (required)</t>
@@ -390,7 +393,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>15</v>
@@ -399,7 +402,7 @@
         <v>15</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>17</v>
@@ -419,22 +422,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>15</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>17</v>
@@ -454,13 +457,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>15</v>
@@ -469,7 +472,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>17</v>
@@ -489,13 +492,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>15</v>
@@ -504,7 +507,7 @@
         <v>15</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>17</v>
